--- a/LplcOpenDataConverter/LplcOpenDataConverter/genko/対象者人数毎のNPD比/プレゼン用.xlsx
+++ b/LplcOpenDataConverter/LplcOpenDataConverter/genko/対象者人数毎のNPD比/プレゼン用.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\崚\source\repos\LplcOpenDataConverter\LplcOpenDataConverter\LplcOpenDataConverter\genko\対象者人数毎のNPD比\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tamura\source\repos\LplcOpenDataConverter\LplcOpenDataConverter\LplcOpenDataConverter\genko\対象者人数毎のNPD比\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,16 +15,12 @@
     <sheet name="result" sheetId="1" r:id="rId1"/>
     <sheet name="result (2)" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>NPD</t>
-    <phoneticPr fontId="18"/>
-  </si>
   <si>
     <t>人数割合</t>
     <rPh sb="0" eb="2">
@@ -36,11 +32,24 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>人数割合</t>
-    <rPh sb="0" eb="2">
+    <t>NPD比</t>
+    <rPh sb="3" eb="4">
+      <t>ヒ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>非対象者の人数の割合</t>
+    <rPh sb="0" eb="1">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="1" eb="4">
+      <t>タイショウシャ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
       <t>ニンズウ</t>
     </rPh>
-    <rPh sb="2" eb="4">
+    <rPh sb="8" eb="10">
       <t>ワリアイ</t>
     </rPh>
     <phoneticPr fontId="18"/>
@@ -49,7 +58,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -709,7 +718,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
   <c:roundedCorners val="0"/>
@@ -900,6 +909,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-75CD-4E24-A973-B2E012C2A064}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1198,7 +1212,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
   <c:roundedCorners val="0"/>
@@ -1226,7 +1240,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>NPD</c:v>
+                  <c:v>NPD比</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1400,6 +1414,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E5CB-4DC5-969F-4B38F3614C23}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1700,7 +1719,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
   <c:roundedCorners val="0"/>
@@ -1713,40 +1732,19 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ja-JP"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.21696102573086892"/>
+          <c:y val="4.390656666352391E-2"/>
+          <c:w val="0.71296484107595326"/>
+          <c:h val="0.72523347954367157"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
@@ -1759,7 +1757,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>NPD</c:v>
+                  <c:v>NPD比</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1780,7 +1778,7 @@
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
-              <a:ln w="9525">
+              <a:ln w="63500">
                 <a:solidFill>
                   <a:schemeClr val="accent1"/>
                 </a:solidFill>
@@ -1933,6 +1931,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-081D-497E-A0A4-E24166637171}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1943,7 +1946,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>人数割合</c:v>
+                  <c:v>非対象者の人数の割合</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1964,7 +1967,7 @@
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
-              <a:ln w="9525">
+              <a:ln w="63500">
                 <a:solidFill>
                   <a:schemeClr val="accent2"/>
                 </a:solidFill>
@@ -2117,6 +2120,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-081D-497E-A0A4-E24166637171}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2133,6 +2141,7 @@
         <c:axId val="441575320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -2150,6 +2159,69 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US" sz="2800"/>
+                  <a:t>非対象者の人数割合</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.36083522316199967"/>
+              <c:y val="0.85949816494636699"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="2800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0.00%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2172,7 +2244,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2195,6 +2267,7 @@
         <c:axId val="441580416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2212,6 +2285,66 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" sz="2800"/>
+                  <a:t>NPD</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US" sz="2800"/>
+                  <a:t>比</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="2800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0.00%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2234,7 +2367,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2263,12 +2396,25 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.51978236960182211"/>
+          <c:y val="0.55544084968648821"/>
+          <c:w val="0.39224394849284139"/>
+          <c:h val="0.13971881252178664"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
-        <a:noFill/>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
         <a:ln>
-          <a:noFill/>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
         </a:ln>
         <a:effectLst/>
       </c:spPr>
@@ -2277,7 +2423,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -4067,16 +4213,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>628650</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>33337</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4549,17 +4695,17 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q37" sqref="Q37"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>0</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -4904,7 +5050,7 @@
   </sheetData>
   <phoneticPr fontId="18"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/LplcOpenDataConverter/LplcOpenDataConverter/genko/対象者人数毎のNPD比/プレゼン用.xlsx
+++ b/LplcOpenDataConverter/LplcOpenDataConverter/genko/対象者人数毎のNPD比/プレゼン用.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tamura\source\repos\LplcOpenDataConverter\LplcOpenDataConverter\LplcOpenDataConverter\genko\対象者人数毎のNPD比\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\崚\source\repos\LplcOpenDataConverter\LplcOpenDataConverter\LplcOpenDataConverter\genko\対象者人数毎のNPD比\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -718,7 +718,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
   <c:roundedCorners val="0"/>
@@ -909,7 +909,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-75CD-4E24-A973-B2E012C2A064}"/>
             </c:ext>
@@ -923,11 +923,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="435604776"/>
-        <c:axId val="435608696"/>
+        <c:axId val="432258632"/>
+        <c:axId val="432257456"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="435604776"/>
+        <c:axId val="432258632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="200"/>
@@ -1040,12 +1040,12 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="435608696"/>
+        <c:crossAx val="432257456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="435608696"/>
+        <c:axId val="432257456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1162,7 +1162,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="435604776"/>
+        <c:crossAx val="432258632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1212,7 +1212,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
   <c:roundedCorners val="0"/>
@@ -1414,7 +1414,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-E5CB-4DC5-969F-4B38F3614C23}"/>
             </c:ext>
@@ -1428,11 +1428,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="435608304"/>
-        <c:axId val="435609088"/>
+        <c:axId val="432257064"/>
+        <c:axId val="432260200"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="435608304"/>
+        <c:axId val="432257064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1546,12 +1546,12 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="435609088"/>
+        <c:crossAx val="432260200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="435609088"/>
+        <c:axId val="432260200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1669,7 +1669,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="435608304"/>
+        <c:crossAx val="432257064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1719,7 +1719,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
   <c:roundedCorners val="0"/>
@@ -1931,7 +1931,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-081D-497E-A0A4-E24166637171}"/>
             </c:ext>
@@ -2120,7 +2120,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-081D-497E-A0A4-E24166637171}"/>
             </c:ext>
@@ -2134,11 +2134,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="441575320"/>
-        <c:axId val="441580416"/>
+        <c:axId val="432254712"/>
+        <c:axId val="432255104"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="441575320"/>
+        <c:axId val="432254712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -2222,7 +2222,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:numFmt formatCode="0%" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2259,12 +2259,12 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="441580416"/>
+        <c:crossAx val="432255104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="441580416"/>
+        <c:axId val="432255104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -2345,7 +2345,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:numFmt formatCode="0%" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2382,7 +2382,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="441575320"/>
+        <c:crossAx val="432254712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4695,7 +4695,7 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="R37" sqref="R37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
